--- a/ds_pro/attendance.xlsx
+++ b/ds_pro/attendance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>2024-04-03</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-04</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,10 +466,22 @@
           <t>payal</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -471,10 +493,14 @@
           <t>virat</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -482,14 +508,18 @@
           <t>rohit</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -497,14 +527,18 @@
           <t>dhoni</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>4</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -512,10 +546,14 @@
           <t>abd</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -523,10 +561,22 @@
           <t>anuksha</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>6</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -534,10 +584,22 @@
           <t>arsh</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -549,10 +611,22 @@
           <t>gauri</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>8</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>P</t>
         </is>
@@ -570,6 +644,46 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>shravani</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>anagha</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
